--- a/Docs/Tablas Lab 4.xlsx
+++ b/Docs/Tablas Lab 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alejo\UNIANDES\Segundo semestre\EDA\laboratorio4\LabSorts-S04-G03\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E01FA01-B4E1-479D-882E-114DD91DA67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -144,6 +143,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +459,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -526,7 +526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -613,7 +613,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -652,7 +652,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,34 +664,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1171.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4781.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>19609.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>78671.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>338000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +766,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -820,7 +805,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,34 +817,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1203.1199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4765.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20171.825000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>90390.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>345000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +918,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -987,7 +957,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,34 +969,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>140.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>343.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>843.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1796.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>4656.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>10062.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>24031.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>62140.625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>100312.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1096,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1164,7 +1134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1248,7 +1218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1286,7 +1256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1328,7 +1298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1365,7 +1335,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1374,7 +1344,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1441,7 +1411,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1528,7 +1498,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1567,7 +1537,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,35 +1548,8 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>108375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1639,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1708,34 +1651,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>115406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,34 +1663,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>115406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1752,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1902,7 +1791,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,34 +1803,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>5968.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>31546.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>166781.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>808625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +1912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2079,7 +1950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2163,11 +2034,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2201,7 +2072,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -2243,7 +2114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2280,7 +2151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2289,7 +2160,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2356,7 +2227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2444,7 +2315,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2483,7 +2354,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,34 +2366,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1171.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>4781.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>19609.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>78671.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>338000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2468,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2651,7 +2507,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,35 +2518,8 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>108375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2828,7 +2657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -2907,7 +2736,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2945,7 +2774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -2987,7 +2816,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3024,7 +2853,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3033,7 +2862,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3095,7 +2924,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3183,7 +3012,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3222,7 +3051,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,34 +3063,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1203.1199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4765.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20171.825000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>90390.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>345000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,7 +3165,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3390,7 +3204,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,34 +3216,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>115406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3316,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3567,7 +3354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3646,7 +3433,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3684,7 +3471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3726,7 +3513,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3763,7 +3550,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3772,7 +3559,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3834,7 +3621,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3922,7 +3709,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3961,7 +3748,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,34 +3760,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>140.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>343.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>843.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>1796.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>4656.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>10062.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>24031.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>62140.625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>100312.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +3877,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4129,7 +3916,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,34 +3928,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>5968.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>31546.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>166781.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>808625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,7 +4037,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4306,7 +4075,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4385,7 +4154,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4423,7 +4192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4465,7 +4234,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4502,7 +4271,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7286,7 +7055,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7297,7 +7066,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7308,7 +7077,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7319,7 +7088,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7330,7 +7099,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7341,7 +7110,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8673523" cy="6306705"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7374,7 +7143,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8673523" cy="6306705"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7407,7 +7176,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8673523" cy="6306705"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7440,7 +7209,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8673523" cy="6306705"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7473,7 +7242,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8664677" cy="6298790"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7529,7 +7298,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7827,19 +7596,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,164 +7622,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="4">
-        <v>10</v>
+        <v>1171.8800000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>1203.1199999999999</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>46.875</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>4781.25</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>4765.625</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+        <v>140.625</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>19609.38</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+        <v>20171.825000000001</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>343.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>40</v>
+        <v>78671.875</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>90390.625</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>843.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
+        <v>338000</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>345000</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>1796.875</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
-      <c r="B7" s="4">
-        <v>60</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>4656.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>10062.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>24031.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>62140.625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>512000</v>
+        <v>375818</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <v>100312.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,162 +7756,97 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
-      <c r="B15" s="4">
-        <v>50</v>
+      <c r="B15" s="5">
+        <v>108375</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>115406</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>5968.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
-      <c r="B16" s="4">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>31546.875</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+        <v>166781.25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <v>808625</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>375818</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="1">
-        <v>512000</v>
-      </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8200,6 +7867,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -8410,12 +8083,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
@@ -8425,6 +8092,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EB27C0-F9F6-4037-B95E-326B818673EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8441,13 +8117,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>